--- a/results/yq_test/graph_cz/Rb2Re4/cz_2q_graphstate_indep_qiskit_16.qasm_rb2_archsize4_mini_dis.xlsx
+++ b/results/yq_test/graph_cz/Rb2Re4/cz_2q_graphstate_indep_qiskit_16.qasm_rb2_archsize4_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.004251956939697266</v>
+        <v>0.0007369518280029297</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0005710124969482422</v>
+        <v>0.0006251335144042969</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0001537799835205078</v>
+        <v>0.008433818817138672</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(0, 0), (0, 1), (3, 0), (2, 1), (1, 2), (1, 0), (3, 1), (0, 2), (2, 2), (2, 0), (2, 3), (0, 3), (3, 3), (1, 1), (1, 3), (3, 2)]</t>
+          <t>[[0, 0], [0, 1], [3, 0], [2, 1], [1, 2], [1, 0], [3, 1], [0, 2], [2, 2], [2, 0], [2, 3], [0, 3], [3, 3], [1, 1], [1, 3], [3, 2]]</t>
         </is>
       </c>
     </row>
@@ -642,110 +642,120 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.00757598876953125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.01867294311523438</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="L32" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M31" t="inlineStr">
+      <c r="M32" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N31" t="inlineStr">
+      <c r="N32" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>
